--- a/BTC-USD.xlsx
+++ b/BTC-USD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="120" windowWidth="19128" windowHeight="9864"/>
+    <workbookView xWindow="192" yWindow="132" windowWidth="13368" windowHeight="6084"/>
   </bookViews>
   <sheets>
     <sheet name="BTC-USD" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -975,7 +975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2438"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2422" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
@@ -57011,23 +57011,23 @@
       <c r="A2437" s="1">
         <v>44334</v>
       </c>
-      <c r="B2437" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2437" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2437" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2437" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2437" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2437" t="s">
-        <v>7</v>
+      <c r="B2437">
+        <v>43488.058594000002</v>
+      </c>
+      <c r="C2437">
+        <v>45812.457030999998</v>
+      </c>
+      <c r="D2437">
+        <v>42367.832030999998</v>
+      </c>
+      <c r="E2437">
+        <v>42909.402344000002</v>
+      </c>
+      <c r="F2437">
+        <v>42909.402344000002</v>
+      </c>
+      <c r="G2437">
+        <v>56187365084</v>
       </c>
     </row>
     <row r="2438" spans="1:7">
@@ -57044,13 +57044,13 @@
         <v>38787.902344000002</v>
       </c>
       <c r="E2438">
-        <v>39492.851562999997</v>
+        <v>40330.925780999998</v>
       </c>
       <c r="F2438">
-        <v>39492.851562999997</v>
+        <v>40330.925780999998</v>
       </c>
       <c r="G2438">
-        <v>63834169344</v>
+        <v>69668380672</v>
       </c>
     </row>
   </sheetData>
